--- a/gr-14/GR14_Dados_Limpos.xlsx
+++ b/gr-14/GR14_Dados_Limpos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia\Desktop\Codigos\crisp-dm\gr-14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC2DF9-FA86-4888-AE44-902D064A7BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DD7BA9-CF82-4948-94D8-EF83DD9FC64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="281">
   <si>
     <t>ANO</t>
   </si>
@@ -697,9 +697,6 @@
     <t>FOZ2426</t>
   </si>
   <si>
-    <t>Algoritmos e Estruturas de Dados</t>
-  </si>
-  <si>
     <t>FOZ2425</t>
   </si>
   <si>
@@ -1231,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L848"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A795" workbookViewId="0">
+      <selection activeCell="E801" sqref="E801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,13 +1252,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1276,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -6702,7 +6699,7 @@
         <v>135</v>
       </c>
       <c r="E171" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -6734,7 +6731,7 @@
         <v>135</v>
       </c>
       <c r="E172" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -8782,7 +8779,7 @@
         <v>140</v>
       </c>
       <c r="E236" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -8814,7 +8811,7 @@
         <v>140</v>
       </c>
       <c r="E237" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F237">
         <v>10</v>
@@ -8846,7 +8843,7 @@
         <v>135</v>
       </c>
       <c r="E238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -8878,7 +8875,7 @@
         <v>135</v>
       </c>
       <c r="E239" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -8910,7 +8907,7 @@
         <v>141</v>
       </c>
       <c r="E240" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -8942,7 +8939,7 @@
         <v>141</v>
       </c>
       <c r="E241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -10606,7 +10603,7 @@
         <v>150</v>
       </c>
       <c r="E293" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F293">
         <v>3</v>
@@ -10638,7 +10635,7 @@
         <v>150</v>
       </c>
       <c r="E294" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F294">
         <v>2</v>
@@ -10766,7 +10763,7 @@
         <v>152</v>
       </c>
       <c r="E298" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -10798,7 +10795,7 @@
         <v>152</v>
       </c>
       <c r="E299" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F299">
         <v>1</v>
@@ -10862,7 +10859,7 @@
         <v>153</v>
       </c>
       <c r="E301" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F301">
         <v>1</v>
@@ -10894,7 +10891,7 @@
         <v>153</v>
       </c>
       <c r="E302" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F302">
         <v>1</v>
@@ -11918,7 +11915,7 @@
         <v>148</v>
       </c>
       <c r="E334" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F334">
         <v>5</v>
@@ -11950,7 +11947,7 @@
         <v>148</v>
       </c>
       <c r="E335" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F335">
         <v>1</v>
@@ -12078,7 +12075,7 @@
         <v>152</v>
       </c>
       <c r="E339" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -12110,7 +12107,7 @@
         <v>152</v>
       </c>
       <c r="E340" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F340">
         <v>2</v>
@@ -13294,7 +13291,7 @@
         <v>155</v>
       </c>
       <c r="E377" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F377">
         <v>1</v>
@@ -13326,7 +13323,7 @@
         <v>155</v>
       </c>
       <c r="E378" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F378">
         <v>3</v>
@@ -14350,7 +14347,7 @@
         <v>148</v>
       </c>
       <c r="E410" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F410">
         <v>1</v>
@@ -14382,7 +14379,7 @@
         <v>148</v>
       </c>
       <c r="E411" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F411">
         <v>1</v>
@@ -14574,7 +14571,7 @@
         <v>155</v>
       </c>
       <c r="E417" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F417">
         <v>1</v>
@@ -14606,7 +14603,7 @@
         <v>155</v>
       </c>
       <c r="E418" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F418">
         <v>1</v>
@@ -15598,7 +15595,7 @@
         <v>164</v>
       </c>
       <c r="E449" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F449">
         <v>2</v>
@@ -15630,7 +15627,7 @@
         <v>164</v>
       </c>
       <c r="E450" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F450">
         <v>2</v>
@@ -15758,7 +15755,7 @@
         <v>155</v>
       </c>
       <c r="E454" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F454">
         <v>2</v>
@@ -15790,7 +15787,7 @@
         <v>155</v>
       </c>
       <c r="E455" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F455">
         <v>0</v>
@@ -15822,7 +15819,7 @@
         <v>165</v>
       </c>
       <c r="E456" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F456">
         <v>0</v>
@@ -15854,7 +15851,7 @@
         <v>165</v>
       </c>
       <c r="E457" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F457">
         <v>3</v>
@@ -16750,7 +16747,7 @@
         <v>169</v>
       </c>
       <c r="E485" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F485">
         <v>1</v>
@@ -16782,7 +16779,7 @@
         <v>169</v>
       </c>
       <c r="E486" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F486">
         <v>3</v>
@@ -17038,7 +17035,7 @@
         <v>155</v>
       </c>
       <c r="E494" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F494">
         <v>0</v>
@@ -17070,7 +17067,7 @@
         <v>155</v>
       </c>
       <c r="E495" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F495">
         <v>2</v>
@@ -17966,7 +17963,7 @@
         <v>173</v>
       </c>
       <c r="E523" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F523">
         <v>1</v>
@@ -17998,7 +17995,7 @@
         <v>173</v>
       </c>
       <c r="E524" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F524">
         <v>3</v>
@@ -18350,7 +18347,7 @@
         <v>155</v>
       </c>
       <c r="E535" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F535">
         <v>1</v>
@@ -18382,7 +18379,7 @@
         <v>155</v>
       </c>
       <c r="E536" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F536">
         <v>3</v>
@@ -19438,7 +19435,7 @@
         <v>182</v>
       </c>
       <c r="E569" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F569">
         <v>0</v>
@@ -19470,7 +19467,7 @@
         <v>182</v>
       </c>
       <c r="E570" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F570">
         <v>1</v>
@@ -19502,7 +19499,7 @@
         <v>183</v>
       </c>
       <c r="E571" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F571">
         <v>0</v>
@@ -19534,7 +19531,7 @@
         <v>183</v>
       </c>
       <c r="E572" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F572">
         <v>0</v>
@@ -20910,7 +20907,7 @@
         <v>196</v>
       </c>
       <c r="E615" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F615">
         <v>0</v>
@@ -20942,7 +20939,7 @@
         <v>196</v>
       </c>
       <c r="E616" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F616">
         <v>4</v>
@@ -21038,7 +21035,7 @@
         <v>199</v>
       </c>
       <c r="E619" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F619">
         <v>2</v>
@@ -21070,7 +21067,7 @@
         <v>199</v>
       </c>
       <c r="E620" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F620">
         <v>2</v>
@@ -21134,7 +21131,7 @@
         <v>200</v>
       </c>
       <c r="E622" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F622">
         <v>1</v>
@@ -21166,7 +21163,7 @@
         <v>200</v>
       </c>
       <c r="E623" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F623">
         <v>0</v>
@@ -21390,7 +21387,7 @@
         <v>203</v>
       </c>
       <c r="E630" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F630">
         <v>0</v>
@@ -21422,7 +21419,7 @@
         <v>204</v>
       </c>
       <c r="E631" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F631">
         <v>0</v>
@@ -22606,7 +22603,7 @@
         <v>206</v>
       </c>
       <c r="E668" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F668">
         <v>0</v>
@@ -22638,7 +22635,7 @@
         <v>206</v>
       </c>
       <c r="E669" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F669">
         <v>0</v>
@@ -22670,7 +22667,7 @@
         <v>207</v>
       </c>
       <c r="E670" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F670">
         <v>1</v>
@@ -22702,7 +22699,7 @@
         <v>207</v>
       </c>
       <c r="E671" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F671">
         <v>2</v>
@@ -22830,7 +22827,7 @@
         <v>188</v>
       </c>
       <c r="E675" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F675">
         <v>2</v>
@@ -22862,7 +22859,7 @@
         <v>188</v>
       </c>
       <c r="E676" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F676">
         <v>0</v>
@@ -24046,7 +24043,7 @@
         <v>208</v>
       </c>
       <c r="E713" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F713">
         <v>1</v>
@@ -24078,7 +24075,7 @@
         <v>208</v>
       </c>
       <c r="E714" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F714">
         <v>1</v>
@@ -24110,7 +24107,7 @@
         <v>206</v>
       </c>
       <c r="E715" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F715">
         <v>0</v>
@@ -24142,7 +24139,7 @@
         <v>206</v>
       </c>
       <c r="E716" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F716">
         <v>6</v>
@@ -24174,7 +24171,7 @@
         <v>201</v>
       </c>
       <c r="E717" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F717">
         <v>0</v>
@@ -24206,7 +24203,7 @@
         <v>201</v>
       </c>
       <c r="E718" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F718">
         <v>0</v>
@@ -25870,7 +25867,7 @@
         <v>201</v>
       </c>
       <c r="E770" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F770">
         <v>0</v>
@@ -25902,7 +25899,7 @@
         <v>201</v>
       </c>
       <c r="E771" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F771">
         <v>0</v>
@@ -25998,7 +25995,7 @@
         <v>223</v>
       </c>
       <c r="E774" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F774">
         <v>3</v>
@@ -26030,7 +26027,7 @@
         <v>223</v>
       </c>
       <c r="E775" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F775">
         <v>1</v>
@@ -26222,7 +26219,7 @@
         <v>210</v>
       </c>
       <c r="E781" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F781">
         <v>0</v>
@@ -26254,7 +26251,7 @@
         <v>188</v>
       </c>
       <c r="E782" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F782">
         <v>1</v>
@@ -26286,7 +26283,7 @@
         <v>188</v>
       </c>
       <c r="E783" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F783">
         <v>3</v>
@@ -26862,7 +26859,7 @@
         <v>224</v>
       </c>
       <c r="E801" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="F801">
         <v>4</v>
@@ -26987,7 +26984,7 @@
         <v>39</v>
       </c>
       <c r="D805" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E805" t="s">
         <v>52</v>
@@ -27019,7 +27016,7 @@
         <v>39</v>
       </c>
       <c r="D806" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E806" t="s">
         <v>55</v>
@@ -27083,10 +27080,10 @@
         <v>39</v>
       </c>
       <c r="D808" t="s">
+        <v>227</v>
+      </c>
+      <c r="E808" t="s">
         <v>228</v>
-      </c>
-      <c r="E808" t="s">
-        <v>229</v>
       </c>
       <c r="F808">
         <v>5</v>
@@ -27179,7 +27176,7 @@
         <v>39</v>
       </c>
       <c r="D811" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E811" t="s">
         <v>191</v>
@@ -27211,7 +27208,7 @@
         <v>39</v>
       </c>
       <c r="D812" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E812" t="s">
         <v>63</v>
@@ -27307,7 +27304,7 @@
         <v>39</v>
       </c>
       <c r="D815" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E815" t="s">
         <v>67</v>
@@ -27339,7 +27336,7 @@
         <v>39</v>
       </c>
       <c r="D816" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E816" t="s">
         <v>168</v>
@@ -27563,7 +27560,7 @@
         <v>72</v>
       </c>
       <c r="D823" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E823" t="s">
         <v>85</v>
@@ -27627,7 +27624,7 @@
         <v>72</v>
       </c>
       <c r="D825" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E825" t="s">
         <v>114</v>
@@ -27851,7 +27848,7 @@
         <v>72</v>
       </c>
       <c r="D832" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E832" t="s">
         <v>118</v>
@@ -28014,7 +28011,7 @@
         <v>206</v>
       </c>
       <c r="E837" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F837">
         <v>0</v>
@@ -28046,7 +28043,7 @@
         <v>206</v>
       </c>
       <c r="E838" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F838">
         <v>0</v>
@@ -28078,7 +28075,7 @@
         <v>206</v>
       </c>
       <c r="E839" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F839">
         <v>0</v>
@@ -28110,7 +28107,7 @@
         <v>201</v>
       </c>
       <c r="E840" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F840">
         <v>0</v>
@@ -28142,7 +28139,7 @@
         <v>201</v>
       </c>
       <c r="E841" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F841">
         <v>0</v>
